--- a/Cronograma de Tarefas.xlsx
+++ b/Cronograma de Tarefas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t xml:space="preserve">Segunda </t>
   </si>
@@ -73,9 +73,6 @@
     <t>2=&gt;</t>
   </si>
   <si>
-    <t>1=&gt;</t>
-  </si>
-  <si>
     <t>3=&gt;</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
       </rPr>
       <t>=&gt; REVISÃO GERAL*</t>
     </r>
-  </si>
-  <si>
-    <t>Sheila</t>
   </si>
   <si>
     <t>Fulano</t>
@@ -917,7 +911,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,10 +942,10 @@
     </row>
     <row r="2" spans="4:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>0</v>
@@ -980,10 +974,10 @@
     </row>
     <row r="3" spans="4:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="6">
+        <v>587</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -996,7 +990,7 @@
     </row>
     <row r="4" spans="4:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
@@ -1012,10 +1006,10 @@
     </row>
     <row r="5" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1028,10 +1022,10 @@
     </row>
     <row r="6" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1044,10 +1038,10 @@
     </row>
     <row r="7" spans="4:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1060,10 +1054,10 @@
     </row>
     <row r="8" spans="4:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1076,10 +1070,10 @@
     </row>
     <row r="9" spans="4:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1092,10 +1086,10 @@
     </row>
     <row r="10" spans="4:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1128,7 +1122,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>

--- a/Cronograma de Tarefas.xlsx
+++ b/Cronograma de Tarefas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">Segunda </t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>recepcao@novahparticipacoes.com.br</t>
+  </si>
+  <si>
+    <t>seu maluco</t>
   </si>
 </sst>
 </file>
@@ -976,8 +979,8 @@
       <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6">
-        <v>587</v>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
